--- a/biology/Médecine/1593_en_santé_et_médecine/1593_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1593_en_santé_et_médecine/1593_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1593_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1593_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1593 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1593_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1593_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>À l'initiative de Pierre Richer de Belleval (1558-1632) et « en vertu des lettres patentes du roi Henri IV, un jardin de botanique est créé à Montpellier, et concédé à l'université ou faculté de médecine de cette ville[1] ».
-Fondation du jardin des plantes de l'université de Heidelberg[2].
-Charles de L'Écluse (1526-1609) devient professeur de botanique à l'université de Leyde où il prend en charge le jardin botanique[3].
-Construction du théâtre anatomique de Leyde[4].
-1593-1607 : durant la guerre de Hongrie, une sorte de typhus (ungarische Krankheit) décime les soldats allemands alors qu’il épargne les Turcs et les Hongrois, et se propage en Europe jusqu’en Angleterre[5].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>À l'initiative de Pierre Richer de Belleval (1558-1632) et « en vertu des lettres patentes du roi Henri IV, un jardin de botanique est créé à Montpellier, et concédé à l'université ou faculté de médecine de cette ville ».
+Fondation du jardin des plantes de l'université de Heidelberg.
+Charles de L'Écluse (1526-1609) devient professeur de botanique à l'université de Leyde où il prend en charge le jardin botanique.
+Construction du théâtre anatomique de Leyde.
+1593-1607 : durant la guerre de Hongrie, une sorte de typhus (ungarische Krankheit) décime les soldats allemands alors qu’il épargne les Turcs et les Hongrois, et se propage en Europe jusqu’en Angleterre.</t>
         </is>
       </c>
     </row>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1593_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1593_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,10 +559,12 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>9 octobre : Nicolaes Tulp (mort en 1674), chirurgien néerlandais, surtout connu pour avoir été représenté par Rembrandt dans la Leçon d'anatomie du docteur Tulp[6].
-William Davisson (mort en 1669), médecin, chimiste et botaniste français d'origine écossaise[7].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>9 octobre : Nicolaes Tulp (mort en 1674), chirurgien néerlandais, surtout connu pour avoir été représenté par Rembrandt dans la Leçon d'anatomie du docteur Tulp.
+William Davisson (mort en 1669), médecin, chimiste et botaniste français d'origine écossaise.</t>
         </is>
       </c>
     </row>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1593_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1593_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,11 +592,13 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>25 juin : Michele Mercati (né en 1541), médecin italien, directeur du jardin botanique de Rome[8],[9].
-Li Shizhen (né en 1518), médecin, herboriste et naturaliste chinois, auteur du Bencao gangmu ou « Compendium de matière médicale », qui ne paraîtra qu'en 1596[10].
-1593 ou 1594 : Étienne Gourmelen (né à une date inconnue), chirurgien français, professeur au Collège royal[11],[12].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>25 juin : Michele Mercati (né en 1541), médecin italien, directeur du jardin botanique de Rome,.
+Li Shizhen (né en 1518), médecin, herboriste et naturaliste chinois, auteur du Bencao gangmu ou « Compendium de matière médicale », qui ne paraîtra qu'en 1596.
+1593 ou 1594 : Étienne Gourmelen (né à une date inconnue), chirurgien français, professeur au Collège royal,.</t>
         </is>
       </c>
     </row>
